--- a/Data Files/verify biometric plus.xlsx
+++ b/Data Files/verify biometric plus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Febryanto\Documents\Project\automation-cw-asli-ri\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F0C9A9-4A24-4BAC-B138-18E61733055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A5F75A-B8B2-496C-9AE9-AAD47E9234DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="909" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="909" firstSheet="24" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="36" r:id="rId1"/>
@@ -18,6 +18,42 @@
     <sheet name="Sheet3" sheetId="166" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="167" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="168" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="169" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="170" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="171" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="172" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="173" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="174" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="175" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="176" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="177" r:id="rId14"/>
+    <sheet name="Sheet15_16" sheetId="178" r:id="rId15"/>
+    <sheet name="Sheet17" sheetId="179" r:id="rId16"/>
+    <sheet name="Sheet18" sheetId="180" r:id="rId17"/>
+    <sheet name="Sheet19" sheetId="181" r:id="rId18"/>
+    <sheet name="Sheet20" sheetId="182" r:id="rId19"/>
+    <sheet name="Sheet21" sheetId="183" r:id="rId20"/>
+    <sheet name="Sheet22" sheetId="184" r:id="rId21"/>
+    <sheet name="Sheet23" sheetId="185" r:id="rId22"/>
+    <sheet name="Sheet24" sheetId="186" r:id="rId23"/>
+    <sheet name="Sheet25" sheetId="187" r:id="rId24"/>
+    <sheet name="Sheet26" sheetId="188" r:id="rId25"/>
+    <sheet name="Sheet27" sheetId="189" r:id="rId26"/>
+    <sheet name="Sheet28" sheetId="190" r:id="rId27"/>
+    <sheet name="Sheet29" sheetId="191" r:id="rId28"/>
+    <sheet name="Sheet30" sheetId="192" r:id="rId29"/>
+    <sheet name="Sheet31" sheetId="193" r:id="rId30"/>
+    <sheet name="Sheet32" sheetId="194" r:id="rId31"/>
+    <sheet name="Sheet33" sheetId="195" r:id="rId32"/>
+    <sheet name="Sheet34" sheetId="196" r:id="rId33"/>
+    <sheet name="Sheet35" sheetId="197" r:id="rId34"/>
+    <sheet name="Sheet36" sheetId="198" r:id="rId35"/>
+    <sheet name="Sheet37" sheetId="199" r:id="rId36"/>
+    <sheet name="Sheet38" sheetId="202" r:id="rId37"/>
+    <sheet name="Sheet39" sheetId="200" r:id="rId38"/>
+    <sheet name="Sheet40" sheetId="203" r:id="rId39"/>
+    <sheet name="Sheet41" sheetId="204" r:id="rId40"/>
+    <sheet name="Sheet42" sheetId="201" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -98,6 +134,225 @@
   </si>
   <si>
     <t>01-09-1989</t>
+  </si>
+  <si>
+    <t>trx_id</t>
+  </si>
+  <si>
+    <t>verify_bioplus-6</t>
+  </si>
+  <si>
+    <t>verifybioplus 7</t>
+  </si>
+  <si>
+    <t>12345678901234567890123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t>123456789012345678901234567890123456789012345678901</t>
+  </si>
+  <si>
+    <t>a!@#$%^&amp;*()b</t>
+  </si>
+  <si>
+    <t>verifybioplus11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3274053105950006 </t>
+  </si>
+  <si>
+    <t>verifybioplus12</t>
+  </si>
+  <si>
+    <t>317504410989 0002</t>
+  </si>
+  <si>
+    <t>verifybioplus13</t>
+  </si>
+  <si>
+    <t>31750441098900002</t>
+  </si>
+  <si>
+    <t>verifybioplus14</t>
+  </si>
+  <si>
+    <t>317504410989</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJ!@#$%^</t>
+  </si>
+  <si>
+    <t>verifybioplus1516</t>
+  </si>
+  <si>
+    <t>verifybioplus17</t>
+  </si>
+  <si>
+    <t>verifybioplus18</t>
+  </si>
+  <si>
+    <t>KIKI SABANA</t>
+  </si>
+  <si>
+    <t>verifybioplus19</t>
+  </si>
+  <si>
+    <t>JELITA~!@#$%^&amp;*()=:&lt;&gt;?SEPTRIASA</t>
+  </si>
+  <si>
+    <t>verifybioplus20</t>
+  </si>
+  <si>
+    <t>JELITASEPTRIASA</t>
+  </si>
+  <si>
+    <t>verifybioplus21</t>
+  </si>
+  <si>
+    <t>JELITA  SEPTRIASA</t>
+  </si>
+  <si>
+    <t>verifybioplus22</t>
+  </si>
+  <si>
+    <t>02-09-1989</t>
+  </si>
+  <si>
+    <t>verifybioplus23</t>
+  </si>
+  <si>
+    <t>DEPOK</t>
+  </si>
+  <si>
+    <t>verifybioplus24</t>
+  </si>
+  <si>
+    <t>JA@#^$&amp;%RTA</t>
+  </si>
+  <si>
+    <t>\Resources\yehuda.png</t>
+  </si>
+  <si>
+    <t>\Resources\ektp_yehuda.png</t>
+  </si>
+  <si>
+    <t>verifybioplus25</t>
+  </si>
+  <si>
+    <t>3274053105950006</t>
+  </si>
+  <si>
+    <t>YEHUDA BAGASKARA</t>
+  </si>
+  <si>
+    <t>31-05-1995</t>
+  </si>
+  <si>
+    <t>KOTACIREBON</t>
+  </si>
+  <si>
+    <t>JL.SURADINAYA GG.FLAMBOYAN 215</t>
+  </si>
+  <si>
+    <t>LISA WARDONO</t>
+  </si>
+  <si>
+    <t>verifybioplus26</t>
+  </si>
+  <si>
+    <t>KOTA  CIREBON</t>
+  </si>
+  <si>
+    <t>verifybioplus27</t>
+  </si>
+  <si>
+    <t>verifybioplus28</t>
+  </si>
+  <si>
+    <t>alamat palsu</t>
+  </si>
+  <si>
+    <t>verifybioplus29</t>
+  </si>
+  <si>
+    <t>verifybioplus30</t>
+  </si>
+  <si>
+    <t>~!@#$%^&amp;*()JL. TEBET BARAT RAYA NO.20 A</t>
+  </si>
+  <si>
+    <t>JL.TEBETBARATRAYANO.20A</t>
+  </si>
+  <si>
+    <t>verifybioplus31</t>
+  </si>
+  <si>
+    <t>JL.  TEBET  BARAT  RAYA  NO  .  20   A</t>
+  </si>
+  <si>
+    <t>verifybioplus32</t>
+  </si>
+  <si>
+    <t>WULAN GURITNO</t>
+  </si>
+  <si>
+    <t>verifybioplus33</t>
+  </si>
+  <si>
+    <t>verifybioplus34</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()`RITA EMZA</t>
+  </si>
+  <si>
+    <t>verifybioplus35</t>
+  </si>
+  <si>
+    <t>RITAEMZA</t>
+  </si>
+  <si>
+    <t>verifybioplus36</t>
+  </si>
+  <si>
+    <t>RITA  EMZA</t>
+  </si>
+  <si>
+    <t>verifybioplus37</t>
+  </si>
+  <si>
+    <t>\Resources\jeli.webp</t>
+  </si>
+  <si>
+    <t>verifybioplus39</t>
+  </si>
+  <si>
+    <t>verifybioplus42</t>
+  </si>
+  <si>
+    <t>verifybioplus38</t>
+  </si>
+  <si>
+    <t>\Resources\febry_7MB.jpg</t>
+  </si>
+  <si>
+    <t>npwp_photo</t>
+  </si>
+  <si>
+    <t>sim_photo</t>
+  </si>
+  <si>
+    <t>bpjs_tk_photo</t>
+  </si>
+  <si>
+    <t>bpjs_kes_photo</t>
+  </si>
+  <si>
+    <t>passport_photo</t>
+  </si>
+  <si>
+    <t>verifybioplus40</t>
+  </si>
+  <si>
+    <t>verifybioplus41</t>
   </si>
 </sst>
 </file>
@@ -471,8 +726,917 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2F4362-773D-446B-9F0B-01F92FC14790}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC31749-5B03-4879-98D8-E3BE3192EA9E}">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2233499D-A2DF-4C38-A1CE-2486F9939BD6}">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA362D92-13A4-4151-AF72-B40D918E7EF1}">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE89D1-50ED-4832-875D-7C17DE88DADA}">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9DC1F4-252E-4171-B9DE-C4D338B0E16F}">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1418CED2-D647-4139-97FE-6FB7568E3F74}">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFE7A6E-7F8B-420E-8F29-CA5385D705EF}">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DDEB5A-7275-4017-8EC8-3A0F850EB4C2}">
+  <sheetPr codeName="Sheet18"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0BD8E8-9C2B-4DFD-86FB-39D96B294790}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0E09FA-DE9C-4C2E-9D3B-898B31F32636}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -527,8 +1691,917 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E43223F-1EAD-4468-BC94-E4A83A315F0C}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994A0AB0-1706-46B3-B0F0-C88064B30E11}">
+  <sheetPr codeName="Sheet21"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612682B6-3676-4CE1-8861-C73FC2DA0275}">
+  <sheetPr codeName="Sheet22"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42016805-5CC2-475B-A20B-8C581CDAFF32}">
+  <sheetPr codeName="Sheet23"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F4C3A-F4CF-4727-AB51-07C0D9ACF6F4}">
+  <sheetPr codeName="Sheet24"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0344A5CE-FE41-4523-9CEC-BE0EB380A6F7}">
+  <sheetPr codeName="Sheet25"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854081C1-1F7D-41AF-9D26-6953E6019FE8}">
+  <sheetPr codeName="Sheet26"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AA1931-F4BF-4F7B-B588-F80DB8FF9D7F}">
+  <sheetPr codeName="Sheet27"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C8E888-9D4B-423F-9934-FDE6BCF8763E}">
+  <sheetPr codeName="Sheet28"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1EEAC3-3708-4C85-A5F2-3A6E4185538F}">
+  <sheetPr codeName="Sheet29"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E627F9D-212E-4F81-8C3C-E18C4F75D3B6}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -583,8 +2656,954 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA8B1D1-013C-4F90-B5F8-E70527AFF5AB}">
+  <sheetPr codeName="Sheet30"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D0DE7-A2FD-4E12-935E-278780A738B3}">
+  <sheetPr codeName="Sheet31"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12141E6B-B4EB-47E0-A470-5F7F9CAA1F3B}">
+  <sheetPr codeName="Sheet32"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FAFFDC-7A05-4B3B-A0A7-32175AB8BDA6}">
+  <sheetPr codeName="Sheet33"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADB1417-E02B-40CD-8F54-A29FA3AEFDB7}">
+  <sheetPr codeName="Sheet34"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451417D7-81DB-4057-B9E9-FDEC64E4012D}">
+  <sheetPr codeName="Sheet35"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882C76E8-52F2-445A-9322-F69917954E26}">
+  <sheetPr codeName="Sheet36"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB12093-8EC7-493D-80CC-BEF0BF3480F2}">
+  <sheetPr codeName="Sheet37"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16428B34-9C05-44CC-B1CC-9BA62EBD48BD}">
+  <sheetPr codeName="Sheet38"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DE84D7-80BB-4296-8A8E-04FD1481283E}">
+  <sheetPr codeName="Sheet39"/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
+    <col min="13" max="13" width="23.6640625" customWidth="1"/>
+    <col min="14" max="14" width="23.88671875" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE348B0-4661-4F3D-88D7-82FC9FA23302}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -663,11 +3682,225 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FDFF77-DD82-443D-9E19-7E6AC686FD77}">
+  <sheetPr codeName="Sheet41"/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4BF931-33FB-482F-AD3D-15FD974DA7F5}">
+  <sheetPr codeName="Sheet40"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686B6C05-7909-436A-BC93-71383C80CB75}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -744,4 +3977,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFC4107-F454-45BC-A615-0C7EF661A0EB}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774A70A5-B471-4F1B-A01F-2159972A4482}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4D0AE9-B78C-44F1-B22D-EF58840DD604}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22971B22-F785-45BC-AE21-77BDA71D9AC8}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>